--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/PycharmProjects/KDTFrame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C06C1B-918D-6F41-B422-C8AC1A0F3CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDBC6B-71CE-7C48-962C-C6EFA9444BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D03AA4B4-EC49-4C4B-B885-BE0CBD9EC9B6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,21 @@
 input,id=_easyui_textbox_input4,Beijing@
 click,id=btn-mobile-btn,
 will_in,,账号或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open,,https://relsagent.joyi.cn/agent/home/ag/login/page
+input,id=_easyui_textbox_input1,18703651001
+input,id=_easyui_textbox_input4,Beijing@123
+click,id=btn-mobile-btn,
+will_in,,退出登录
+switch_to_frame,xpath=//*[@id="tabs"]/div[2]/div/div/iframe,
+click,xpath=//*[@id="frmQuery"]/div[8]/div[2]/div[1]/span/span/a[2],
+click,id=propertyTypeIds_easyui_combobox_i1_0,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67870C2-2651-404E-8851-02CBA2F1E2EF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -516,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -535,6 +550,20 @@
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="136">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/PycharmProjects/KDTFrame/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanwl/Documents/work/PythonScript/KDTFrame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDBC6B-71CE-7C48-962C-C6EFA9444BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F2BCA-B6D0-B64F-9FF6-C974B04E9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D03AA4B4-EC49-4C4B-B885-BE0CBD9EC9B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{D03AA4B4-EC49-4C4B-B885-BE0CBD9EC9B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,44 @@
 switch_to_frame,xpath=//*[@id="tabs"]/div[2]/div/div/iframe,
 click,xpath=//*[@id="frmQuery"]/div[8]/div[2]/div[1]/span/span/a[2],
 click,id=propertyTypeIds_easyui_combobox_i1_0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open,,https://www.baidu.com
+move_to_element,id=s-usersetting-top,
+click,partial_linktext=搜索设置,
+click,xpath=//*[@id="wrapper"]/div[6]/div/div/ul/li[2],
+click,css_selector=.c-select-selection,
+click,xpath=//*[@id="adv-setting-gpc"]/div/div[2]/div[2]/p[5],</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open,,https://www.baidu.com
+click,css_selector=.soutu-btn,
+input,css_selector=.upload-pic,/Users/wanwl/Documents/work/PythonScript/KDTFrame/data/cvImage/login.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open,,https://www.baidu.com
+click,xpath=//*[@id="s-top-left"]/a[1],
+switch_window,,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open,,https://movie.douban.com/
+scroll_to_element,id=gallery-frames,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67870C2-2651-404E-8851-02CBA2F1E2EF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -560,10 +598,63 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="102">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="85">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
